--- a/需求跟踪.xlsx
+++ b/需求跟踪.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\overl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\BudgetSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D8FC2E62-55C9-417F-858B-7B48D52B5ABC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C386EB-D441-43B2-8928-6523BEB3E310}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8292"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求跟踪表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="138">
   <si>
     <t>用户管理</t>
   </si>
@@ -458,13 +458,52 @@
   </si>
   <si>
     <t>配合自动升级程序使用的版本发布工具</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发工作量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试工作量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序框架</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理的框架</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统的整体框架设计</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求的访谈，沟通</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求访谈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>？？</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1135,18 +1174,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1154,37 +1223,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1232,7 +1274,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1247,13 +1289,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEF7BAA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1308,21 +1343,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFEF7BAA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1346,111 +1367,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor rgb="FFEF7BAA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1768,1294 +1685,1590 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.5546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="63.5546875" style="12" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="42.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="42.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="15">
+        <v>2</v>
+      </c>
+      <c r="J2" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="3" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="15">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="J6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="3" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="3" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="3" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="3" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="3" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="3" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="3" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="3" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="3" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="3" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C17" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="3" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="3" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="3" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="15">
+        <v>2</v>
+      </c>
+      <c r="J19" s="15">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C20" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="3" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C21" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="3" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="12" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E22" s="5">
         <v>43445</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="12" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E23" s="5">
         <v>43445</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4" t="s">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C24" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E24" s="5">
         <v>43445</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C25" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="3" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C26" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="3" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4" t="s">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C27" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="3" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="4" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C28" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="3" t="s">
+      <c r="E28" s="8"/>
+      <c r="F28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="4" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="4" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="4" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="4" t="s">
+      <c r="C35" s="9"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="4" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="4" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="4" t="s">
+      <c r="C40" s="9"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="4" t="s">
+      <c r="C41" s="9"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="4" t="s">
+      <c r="C42" s="9"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="4" t="s">
+      <c r="C43" s="9"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="C44" s="9"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B45" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C45" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="12" t="s">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="4" t="s">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="4" t="s">
+      <c r="C47" s="9"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="4" t="s">
+      <c r="C48" s="9"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="4" t="s">
+      <c r="C49" s="9"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="4" t="s">
+      <c r="C50" s="9"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="4" t="s">
+      <c r="C51" s="9"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="4" t="s">
+      <c r="C52" s="9"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="C53" s="9"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="4" t="s">
+      <c r="C54" s="9"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="4" t="s">
+      <c r="C55" s="9"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="4" t="s">
+      <c r="C56" s="9"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="4" t="s">
+      <c r="C57" s="9"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="4" t="s">
+      <c r="C58" s="9"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="C59" s="9"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="4" t="s">
+      <c r="C60" s="9"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="4" t="s">
+      <c r="C61" s="9"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="4" t="s">
+      <c r="C62" s="9"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="C63" s="9"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="4" t="s">
+      <c r="C64" s="9"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="4" t="s">
+      <c r="C65" s="9"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="4" t="s">
+      <c r="C66" s="9"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="4" t="s">
+      <c r="C67" s="9"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="C68" s="9"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="4" t="s">
+      <c r="C69" s="9"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="4" t="s">
+      <c r="C70" s="9"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="4" t="s">
+      <c r="C71" s="9"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="B72" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="4" t="s">
+      <c r="C72" s="9"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="4" t="s">
+      <c r="C73" s="9"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="C74" s="9"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B75" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C75" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="12" t="s">
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="12" t="s">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="12" t="s">
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="14" t="s">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="14" t="s">
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="14" t="s">
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="B73:B79"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B43:B44"/>
+  <mergeCells count="31">
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="A43:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I6:I12"/>
+    <mergeCell ref="J6:J12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A68"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="C1:I2 C4:I1048576 C3:H3">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="C1:K2 C6:K6 C3:H5 C7:H12 C14:H14 C13:I13 K7:K14 C15:K15 C19:K19 C16:H18 K16:K18 C21:K26 C20:H20 K20 C29:K1048576 C27:H28 K27:K28">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>IF($D1="需求变更",1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>IF($D1="需求废弃",1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>IF($D1="新增需求",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>IF($D5="需求变更",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>IF($D5="需求废弃",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>IF($D5="新增需求",1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="expression" dxfId="5" priority="14">
+      <formula>IF($D13="需求变更",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="15">
+      <formula>IF($D13="需求废弃",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="16">
+      <formula>IF($D13="新增需求",1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="expression" dxfId="2" priority="20">
+      <formula>IF($D14="需求变更",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="21">
+      <formula>IF($D14="需求废弃",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="22">
+      <formula>IF($D14="新增需求",1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F20 F23:F26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F22 F25:F28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未开发,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
